--- a/data/pca/factorExposure/factorExposure_2014-11-27.xlsx
+++ b/data/pca/factorExposure/factorExposure_2014-11-27.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,21 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +707,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,27 +726,57 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>-0.005488937918230713</v>
+        <v>-0.00814378334871812</v>
       </c>
       <c r="C2">
-        <v>-0.05142073786493161</v>
+        <v>-0.06656612849485041</v>
       </c>
       <c r="D2">
-        <v>-0.1701659036084605</v>
+        <v>0.02041283878419245</v>
       </c>
       <c r="E2">
-        <v>0.1240150493869993</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.1650579309569289</v>
+      </c>
+      <c r="F2">
+        <v>0.04384625129165004</v>
+      </c>
+      <c r="G2">
+        <v>-0.1050737771063808</v>
+      </c>
+      <c r="H2">
+        <v>0.06668755703950315</v>
+      </c>
+      <c r="I2">
+        <v>-0.09919997006779699</v>
+      </c>
+      <c r="J2">
+        <v>0.2186278394382114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -745,27 +790,57 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>-0.01718537030927391</v>
+        <v>-0.01248379720559064</v>
       </c>
       <c r="C4">
-        <v>-0.1320121105157492</v>
+        <v>-0.1458320592154643</v>
       </c>
       <c r="D4">
-        <v>-0.1038349108869848</v>
+        <v>-0.01238209228674727</v>
       </c>
       <c r="E4">
-        <v>0.05862982585234439</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.1068292338104043</v>
+      </c>
+      <c r="F4">
+        <v>-0.06956371324807142</v>
+      </c>
+      <c r="G4">
+        <v>-0.03628686533838162</v>
+      </c>
+      <c r="H4">
+        <v>0.1084797551745937</v>
+      </c>
+      <c r="I4">
+        <v>0.01546202171674707</v>
+      </c>
+      <c r="J4">
+        <v>0.122713929492108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +854,377 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>-0.0177370882008896</v>
+        <v>-0.03120639767777169</v>
       </c>
       <c r="C6">
-        <v>-0.06389380002183062</v>
+        <v>-0.07106471981529343</v>
       </c>
       <c r="D6">
-        <v>-0.07662977964386583</v>
+        <v>-0.0009371988874767419</v>
       </c>
       <c r="E6">
-        <v>0.08019055671921788</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.1081456135512648</v>
+      </c>
+      <c r="F6">
+        <v>0.03344887443702035</v>
+      </c>
+      <c r="G6">
+        <v>0.01267063988115315</v>
+      </c>
+      <c r="H6">
+        <v>0.03991723726944369</v>
+      </c>
+      <c r="I6">
+        <v>-0.04673476028347377</v>
+      </c>
+      <c r="J6">
+        <v>0.004198805307014048</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>0.01979683079942233</v>
+        <v>-0.004683859809728611</v>
       </c>
       <c r="C7">
-        <v>-0.04307860673041535</v>
+        <v>-0.06387129490327492</v>
       </c>
       <c r="D7">
-        <v>-0.05371281847644439</v>
+        <v>0.005271874273576572</v>
       </c>
       <c r="E7">
-        <v>0.05394272081857371</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.06699723673872693</v>
+      </c>
+      <c r="F7">
+        <v>-0.02251895425845461</v>
+      </c>
+      <c r="G7">
+        <v>0.04383960453793159</v>
+      </c>
+      <c r="H7">
+        <v>0.08508313764906564</v>
+      </c>
+      <c r="I7">
+        <v>-0.008465393939503222</v>
+      </c>
+      <c r="J7">
+        <v>0.03046300932607871</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>0.01303201338717503</v>
+        <v>0.008575871184227519</v>
       </c>
       <c r="C8">
-        <v>-0.06574148249031199</v>
+        <v>-0.0683438821039368</v>
       </c>
       <c r="D8">
-        <v>-0.07921912732703161</v>
+        <v>-0.01791074460716178</v>
       </c>
       <c r="E8">
-        <v>0.1043928881973921</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.08353649164254742</v>
+      </c>
+      <c r="F8">
+        <v>-0.02580285601262959</v>
+      </c>
+      <c r="G8">
+        <v>-0.06864917346238335</v>
+      </c>
+      <c r="H8">
+        <v>0.02752763716783845</v>
+      </c>
+      <c r="I8">
+        <v>-0.008480293118125905</v>
+      </c>
+      <c r="J8">
+        <v>0.007881428793987426</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>-0.0098756254822035</v>
+        <v>-0.00739429867578851</v>
       </c>
       <c r="C9">
-        <v>-0.1093740578689616</v>
+        <v>-0.1134469625688724</v>
       </c>
       <c r="D9">
-        <v>-0.08334864802353288</v>
+        <v>-0.008375838671714039</v>
       </c>
       <c r="E9">
-        <v>0.06207208438796025</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.07935834035553564</v>
+      </c>
+      <c r="F9">
+        <v>-0.01490659132325329</v>
+      </c>
+      <c r="G9">
+        <v>-0.008620665569433861</v>
+      </c>
+      <c r="H9">
+        <v>0.1047816281347215</v>
+      </c>
+      <c r="I9">
+        <v>-0.00762571588683876</v>
+      </c>
+      <c r="J9">
+        <v>0.05046813097835807</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>-0.2555043717958064</v>
+        <v>-0.2518940244180729</v>
       </c>
       <c r="C10">
-        <v>0.09037161270354757</v>
+        <v>0.08258175163255889</v>
       </c>
       <c r="D10">
-        <v>-0.01192783061253168</v>
+        <v>-0.0006549958157228412</v>
       </c>
       <c r="E10">
-        <v>-0.06725530130413737</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.002136017646522806</v>
+      </c>
+      <c r="F10">
+        <v>-0.01319318772407202</v>
+      </c>
+      <c r="G10">
+        <v>-0.001371721536637541</v>
+      </c>
+      <c r="H10">
+        <v>0.03419335370832143</v>
+      </c>
+      <c r="I10">
+        <v>0.1680213306989191</v>
+      </c>
+      <c r="J10">
+        <v>-0.09878735572229649</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>-0.001456517901797346</v>
+        <v>-0.009780510847848332</v>
       </c>
       <c r="C11">
-        <v>-0.05678416867612926</v>
+        <v>-0.07824851036723574</v>
       </c>
       <c r="D11">
-        <v>-0.04033980690566152</v>
+        <v>-0.01285133625310814</v>
       </c>
       <c r="E11">
-        <v>0.03494094642241766</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.04068399352527104</v>
+      </c>
+      <c r="F11">
+        <v>-0.01000267217398204</v>
+      </c>
+      <c r="G11">
+        <v>0.02897971995488472</v>
+      </c>
+      <c r="H11">
+        <v>0.03886314490466428</v>
+      </c>
+      <c r="I11">
+        <v>0.005604113261779127</v>
+      </c>
+      <c r="J11">
+        <v>-0.05465298250122336</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>-0.004793172396770995</v>
+        <v>-0.01165341463276756</v>
       </c>
       <c r="C12">
-        <v>-0.05360179241078892</v>
+        <v>-0.06133683574655494</v>
       </c>
       <c r="D12">
-        <v>-0.0335486425514195</v>
+        <v>-0.003177609766458102</v>
       </c>
       <c r="E12">
-        <v>0.03073862069916727</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.03470634642258001</v>
+      </c>
+      <c r="F12">
+        <v>0.02005842690371953</v>
+      </c>
+      <c r="G12">
+        <v>0.03175957428026481</v>
+      </c>
+      <c r="H12">
+        <v>0.0407888413471881</v>
+      </c>
+      <c r="I12">
+        <v>0.01014568172453552</v>
+      </c>
+      <c r="J12">
+        <v>-0.02705902934812112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>-0.001733454537732469</v>
+        <v>-0.0006530340583065457</v>
       </c>
       <c r="C13">
-        <v>-0.07493034492966311</v>
+        <v>-0.1075526497919353</v>
       </c>
       <c r="D13">
-        <v>-0.1120835956036219</v>
+        <v>0.01671059212536029</v>
       </c>
       <c r="E13">
-        <v>0.1188251500113639</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.1578909403445596</v>
+      </c>
+      <c r="F13">
+        <v>0.1005121786296293</v>
+      </c>
+      <c r="G13">
+        <v>0.03279944945382261</v>
+      </c>
+      <c r="H13">
+        <v>0.08754967739801968</v>
+      </c>
+      <c r="I13">
+        <v>0.1150371218482437</v>
+      </c>
+      <c r="J13">
+        <v>-0.1092605347263283</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>0.005809374987537256</v>
+        <v>-0.007066506810615406</v>
       </c>
       <c r="C14">
-        <v>-0.05210950786748956</v>
+        <v>-0.07531311517879358</v>
       </c>
       <c r="D14">
-        <v>-0.05508687703040976</v>
+        <v>-0.01687873747899389</v>
       </c>
       <c r="E14">
-        <v>0.06280607420370792</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.09067388969012907</v>
+      </c>
+      <c r="F14">
+        <v>0.03498702876761657</v>
+      </c>
+      <c r="G14">
+        <v>0.06548696117369542</v>
+      </c>
+      <c r="H14">
+        <v>0.1557750648006073</v>
+      </c>
+      <c r="I14">
+        <v>-0.02553156457512071</v>
+      </c>
+      <c r="J14">
+        <v>-0.131153929540034</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B15">
-        <v>-0.001245835218428903</v>
+        <v>0.001684517306796335</v>
       </c>
       <c r="C15">
-        <v>-0.06222586693348713</v>
+        <v>-0.07052185956202818</v>
       </c>
       <c r="D15">
-        <v>-0.06420710983902621</v>
+        <v>-0.004229518715690871</v>
       </c>
       <c r="E15">
-        <v>0.07130243362859114</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>-0.06261008053156406</v>
+      </c>
+      <c r="F15">
+        <v>-0.006826692550313943</v>
+      </c>
+      <c r="G15">
+        <v>0.01302472959232976</v>
+      </c>
+      <c r="H15">
+        <v>0.0527858460891046</v>
+      </c>
+      <c r="I15">
+        <v>-0.01168256840658837</v>
+      </c>
+      <c r="J15">
+        <v>-0.04531039627087217</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B16">
-        <v>-0.005456172632518406</v>
+        <v>-0.01035156397781864</v>
       </c>
       <c r="C16">
-        <v>-0.05157774180896572</v>
+        <v>-0.06569479176258704</v>
       </c>
       <c r="D16">
-        <v>-0.03331538485165127</v>
+        <v>-0.004058665475390097</v>
       </c>
       <c r="E16">
-        <v>0.02314251490458915</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.02819173013476011</v>
+      </c>
+      <c r="F16">
+        <v>0.001343764816469784</v>
+      </c>
+      <c r="G16">
+        <v>0.02987090779768979</v>
+      </c>
+      <c r="H16">
+        <v>0.03610885765148878</v>
+      </c>
+      <c r="I16">
+        <v>0.007664134772004712</v>
+      </c>
+      <c r="J16">
+        <v>-0.01988643126759618</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1238,25 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,10 +1270,25 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1017,129 +1302,249 @@
       <c r="E19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B20">
-        <v>-0.0009931637223357028</v>
+        <v>-0.005893013343322383</v>
       </c>
       <c r="C20">
-        <v>-0.05860300484740798</v>
+        <v>-0.08107840703835029</v>
       </c>
       <c r="D20">
-        <v>-0.07536987196611708</v>
+        <v>0.008027091750768749</v>
       </c>
       <c r="E20">
-        <v>0.04449016157851492</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.06386102687218555</v>
+      </c>
+      <c r="F20">
+        <v>-0.01676992338148994</v>
+      </c>
+      <c r="G20">
+        <v>0.06097127147036001</v>
+      </c>
+      <c r="H20">
+        <v>0.06630650058485166</v>
+      </c>
+      <c r="I20">
+        <v>-0.006860922134893448</v>
+      </c>
+      <c r="J20">
+        <v>-0.005675624819796846</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B21">
-        <v>-0.006608160150963696</v>
+        <v>-0.008439669139624345</v>
       </c>
       <c r="C21">
-        <v>-0.07312106779556832</v>
+        <v>-0.07906751927834611</v>
       </c>
       <c r="D21">
-        <v>-0.1089405335196405</v>
+        <v>0.004150343616264912</v>
       </c>
       <c r="E21">
-        <v>0.04993346907101445</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.09632442142837047</v>
+      </c>
+      <c r="F21">
+        <v>0.07395755134448009</v>
+      </c>
+      <c r="G21">
+        <v>-0.008519871309213181</v>
+      </c>
+      <c r="H21">
+        <v>0.1774943058507525</v>
+      </c>
+      <c r="I21">
+        <v>0.045926545296078</v>
+      </c>
+      <c r="J21">
+        <v>-0.07474753219521806</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B22">
-        <v>0.01574254029546916</v>
+        <v>0.01692209184934549</v>
       </c>
       <c r="C22">
-        <v>-0.1100085588566394</v>
+        <v>-0.1351939787301092</v>
       </c>
       <c r="D22">
-        <v>-0.263552659809511</v>
+        <v>0.05095194087905824</v>
       </c>
       <c r="E22">
-        <v>0.1078854404403787</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>-0.3084905525969656</v>
+      </c>
+      <c r="F22">
+        <v>-0.1312757077053162</v>
+      </c>
+      <c r="G22">
+        <v>-0.3218622762002358</v>
+      </c>
+      <c r="H22">
+        <v>-0.4110436155076609</v>
+      </c>
+      <c r="I22">
+        <v>0.05115545812655236</v>
+      </c>
+      <c r="J22">
+        <v>-0.1786434800954736</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B23">
-        <v>0.01620244975232323</v>
+        <v>0.01339750628998693</v>
       </c>
       <c r="C23">
-        <v>-0.1117695459979487</v>
+        <v>-0.1395442434888683</v>
       </c>
       <c r="D23">
-        <v>-0.2622831925729405</v>
+        <v>0.05340128150776258</v>
       </c>
       <c r="E23">
-        <v>0.1068814168807136</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>-0.302916503850848</v>
+      </c>
+      <c r="F23">
+        <v>-0.1250948582296858</v>
+      </c>
+      <c r="G23">
+        <v>-0.3124725607389482</v>
+      </c>
+      <c r="H23">
+        <v>-0.384062529587779</v>
+      </c>
+      <c r="I23">
+        <v>0.05398931672036226</v>
+      </c>
+      <c r="J23">
+        <v>-0.1737305752793439</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B24">
-        <v>-0.0001305762114802713</v>
+        <v>-0.01071695531436627</v>
       </c>
       <c r="C24">
-        <v>-0.06866751851660007</v>
+        <v>-0.07548134777878071</v>
       </c>
       <c r="D24">
-        <v>-0.03660162118745172</v>
+        <v>-0.01708026754277043</v>
       </c>
       <c r="E24">
-        <v>0.04516506963261328</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.04464584568444496</v>
+      </c>
+      <c r="F24">
+        <v>-0.00375698611208768</v>
+      </c>
+      <c r="G24">
+        <v>0.03214771342174356</v>
+      </c>
+      <c r="H24">
+        <v>0.05396970121813897</v>
+      </c>
+      <c r="I24">
+        <v>0.002393479812336671</v>
+      </c>
+      <c r="J24">
+        <v>-0.03565042964745122</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B25">
-        <v>-0.007251209469693025</v>
+        <v>-0.01668568670544993</v>
       </c>
       <c r="C25">
-        <v>-0.06412369168706016</v>
+        <v>-0.07348981771892354</v>
       </c>
       <c r="D25">
-        <v>-0.03642893196768571</v>
+        <v>-0.008450056312517423</v>
       </c>
       <c r="E25">
-        <v>0.02218435445365227</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-0.0346207391766226</v>
+      </c>
+      <c r="F25">
+        <v>-0.00627431278606823</v>
+      </c>
+      <c r="G25">
+        <v>0.02921874910436239</v>
+      </c>
+      <c r="H25">
+        <v>0.03804343408494291</v>
+      </c>
+      <c r="I25">
+        <v>0.016728914677717</v>
+      </c>
+      <c r="J25">
+        <v>-0.04696275267479849</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B26">
-        <v>-0.003418879684810856</v>
+        <v>-0.01654766235759689</v>
       </c>
       <c r="C26">
-        <v>-0.043426691479556</v>
+        <v>-0.06040927386002128</v>
       </c>
       <c r="D26">
-        <v>-0.04382859161232786</v>
+        <v>-0.0361540888974965</v>
       </c>
       <c r="E26">
-        <v>0.06092703461024571</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.06201082735612329</v>
+      </c>
+      <c r="F26">
+        <v>0.004415560821982933</v>
+      </c>
+      <c r="G26">
+        <v>0.0198254090449098</v>
+      </c>
+      <c r="H26">
+        <v>0.131609410715502</v>
+      </c>
+      <c r="I26">
+        <v>0.01243219306789637</v>
+      </c>
+      <c r="J26">
+        <v>0.05825227553262483</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1558,313 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B28">
-        <v>-0.3237740829943973</v>
+        <v>-0.3139528097385707</v>
       </c>
       <c r="C28">
-        <v>0.103727755152218</v>
+        <v>0.1039331924423044</v>
       </c>
       <c r="D28">
-        <v>-0.01338390666936683</v>
+        <v>0.0149128586378955</v>
       </c>
       <c r="E28">
-        <v>-0.06274292642244601</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>5.19200293390316e-05</v>
+      </c>
+      <c r="F28">
+        <v>-0.05107960367475899</v>
+      </c>
+      <c r="G28">
+        <v>-0.07313913770746143</v>
+      </c>
+      <c r="H28">
+        <v>0.06953071046382878</v>
+      </c>
+      <c r="I28">
+        <v>0.171589018756011</v>
+      </c>
+      <c r="J28">
+        <v>0.09533027690447425</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B29">
-        <v>0.002342647277880592</v>
+        <v>-0.004134631428709174</v>
       </c>
       <c r="C29">
-        <v>-0.05111963046644687</v>
+        <v>-0.07792664426550425</v>
       </c>
       <c r="D29">
-        <v>-0.0708338575939116</v>
+        <v>-0.01083326256011312</v>
       </c>
       <c r="E29">
-        <v>0.08606453655001765</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>-0.1145856122487238</v>
+      </c>
+      <c r="F29">
+        <v>0.04843983738031225</v>
+      </c>
+      <c r="G29">
+        <v>0.09310925967506389</v>
+      </c>
+      <c r="H29">
+        <v>0.1982019429686736</v>
+      </c>
+      <c r="I29">
+        <v>-0.05095336200016587</v>
+      </c>
+      <c r="J29">
+        <v>-0.1734682029867884</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B30">
-        <v>-0.01602203465447011</v>
+        <v>-0.01819605089498018</v>
       </c>
       <c r="C30">
-        <v>-0.1572954105334611</v>
+        <v>-0.1513168187861204</v>
       </c>
       <c r="D30">
-        <v>-0.1004861608698391</v>
+        <v>-0.01795207341995689</v>
       </c>
       <c r="E30">
-        <v>0.08647532073568837</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.09552553289903307</v>
+      </c>
+      <c r="F30">
+        <v>-0.02386815851761658</v>
+      </c>
+      <c r="G30">
+        <v>-0.02200741079781993</v>
+      </c>
+      <c r="H30">
+        <v>0.0338460713423757</v>
+      </c>
+      <c r="I30">
+        <v>-0.01951437285762687</v>
+      </c>
+      <c r="J30">
+        <v>0.07410299760549616</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B31">
-        <v>0.01022310416914391</v>
+        <v>-0.00358248523867194</v>
       </c>
       <c r="C31">
-        <v>-0.0975754523333754</v>
+        <v>-0.09916687352600746</v>
       </c>
       <c r="D31">
-        <v>0.00914832522302525</v>
+        <v>-0.02703102713564012</v>
       </c>
       <c r="E31">
-        <v>0.0155071472363683</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-5.609411602763493e-05</v>
+      </c>
+      <c r="F31">
+        <v>9.444935923808302e-05</v>
+      </c>
+      <c r="G31">
+        <v>-0.01809927245368877</v>
+      </c>
+      <c r="H31">
+        <v>0.05536962234760219</v>
+      </c>
+      <c r="I31">
+        <v>0.03476136096419259</v>
+      </c>
+      <c r="J31">
+        <v>-0.04907143881997651</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B32">
-        <v>-0.01638062014550057</v>
+        <v>-0.02016492221878731</v>
       </c>
       <c r="C32">
-        <v>-0.06541577385321388</v>
+        <v>-0.06624450557075254</v>
       </c>
       <c r="D32">
-        <v>-0.1276082844693041</v>
+        <v>0.02023091489519256</v>
       </c>
       <c r="E32">
-        <v>0.05465153377810154</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.1138579064225411</v>
+      </c>
+      <c r="F32">
+        <v>0.0270504031735734</v>
+      </c>
+      <c r="G32">
+        <v>-0.02985692137286572</v>
+      </c>
+      <c r="H32">
+        <v>0.1077514826326763</v>
+      </c>
+      <c r="I32">
+        <v>0.2219253939645152</v>
+      </c>
+      <c r="J32">
+        <v>0.02326118484502467</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B33">
-        <v>-0.0002895373568041994</v>
+        <v>-0.008972968080897453</v>
       </c>
       <c r="C33">
-        <v>-0.08181687145536767</v>
+        <v>-0.1068476987168027</v>
       </c>
       <c r="D33">
-        <v>-0.05576425591133932</v>
+        <v>-0.004330315958847129</v>
       </c>
       <c r="E33">
-        <v>0.06235305803025159</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.07225996869425028</v>
+      </c>
+      <c r="F33">
+        <v>-0.00264788704359214</v>
+      </c>
+      <c r="G33">
+        <v>0.02824899008503218</v>
+      </c>
+      <c r="H33">
+        <v>0.05750335540265355</v>
+      </c>
+      <c r="I33">
+        <v>0.02555388756401103</v>
+      </c>
+      <c r="J33">
+        <v>-0.01821156815893327</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B34">
-        <v>0.000816148012071881</v>
+        <v>-0.01130334651109558</v>
       </c>
       <c r="C34">
-        <v>-0.05291159162277203</v>
+        <v>-0.05543526410266504</v>
       </c>
       <c r="D34">
-        <v>-0.02022315173645317</v>
+        <v>-0.008845820691089511</v>
       </c>
       <c r="E34">
-        <v>0.02388124973211713</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-0.02398838364808448</v>
+      </c>
+      <c r="F34">
+        <v>0.009670323394762148</v>
+      </c>
+      <c r="G34">
+        <v>0.02899335997769667</v>
+      </c>
+      <c r="H34">
+        <v>0.01301532235308413</v>
+      </c>
+      <c r="I34">
+        <v>0.02146738834879888</v>
+      </c>
+      <c r="J34">
+        <v>-0.03037393859716018</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B35">
-        <v>-0.002257169573598156</v>
+        <v>-0.005993336832565524</v>
       </c>
       <c r="C35">
-        <v>-0.007037245478742874</v>
+        <v>-0.03557557228668109</v>
       </c>
       <c r="D35">
-        <v>-0.01198949869349838</v>
+        <v>-0.001970993507913325</v>
       </c>
       <c r="E35">
-        <v>0.006558762418093414</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>-0.0410111933954936</v>
+      </c>
+      <c r="F35">
+        <v>0.01062907519435247</v>
+      </c>
+      <c r="G35">
+        <v>0.03921074222597002</v>
+      </c>
+      <c r="H35">
+        <v>0.1125896593405808</v>
+      </c>
+      <c r="I35">
+        <v>0.004933749090740193</v>
+      </c>
+      <c r="J35">
+        <v>-0.1694218923867316</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B36">
-        <v>-0.0006770405415970462</v>
+        <v>-0.008370411747099011</v>
       </c>
       <c r="C36">
-        <v>-0.03755108501709218</v>
+        <v>-0.04737187568760006</v>
       </c>
       <c r="D36">
-        <v>-0.040209593736927</v>
+        <v>-0.02402530519811914</v>
       </c>
       <c r="E36">
-        <v>0.06659804724795956</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.06226153891054684</v>
+      </c>
+      <c r="F36">
+        <v>0.001898147835149257</v>
+      </c>
+      <c r="G36">
+        <v>0.01404487455185196</v>
+      </c>
+      <c r="H36">
+        <v>0.07307193460104389</v>
+      </c>
+      <c r="I36">
+        <v>0.0034153202222688</v>
+      </c>
+      <c r="J36">
+        <v>0.009974544211419729</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1878,153 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B38">
-        <v>-0.009928062830950105</v>
+        <v>-0.008119645155176561</v>
       </c>
       <c r="C38">
-        <v>-0.04086888866658147</v>
+        <v>-0.06022237269416843</v>
       </c>
       <c r="D38">
-        <v>-0.04543943986730244</v>
+        <v>-0.01245075359456076</v>
       </c>
       <c r="E38">
-        <v>0.0520091764167334</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.06634606716427516</v>
+      </c>
+      <c r="F38">
+        <v>-0.04828134728685182</v>
+      </c>
+      <c r="G38">
+        <v>0.007364437984141547</v>
+      </c>
+      <c r="H38">
+        <v>0.06286872449950559</v>
+      </c>
+      <c r="I38">
+        <v>0.03223547051073127</v>
+      </c>
+      <c r="J38">
+        <v>-0.06584397698696375</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B39">
-        <v>-0.001272633513952194</v>
+        <v>-0.008168811084411644</v>
       </c>
       <c r="C39">
-        <v>-0.1197389616547385</v>
+        <v>-0.1286078852201578</v>
       </c>
       <c r="D39">
-        <v>-0.07164033729037783</v>
+        <v>-0.02354599112461977</v>
       </c>
       <c r="E39">
-        <v>0.06262809573850019</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.06161593923567703</v>
+      </c>
+      <c r="F39">
+        <v>0.0167380213094078</v>
+      </c>
+      <c r="G39">
+        <v>0.04803601869536734</v>
+      </c>
+      <c r="H39">
+        <v>0.05013219467978454</v>
+      </c>
+      <c r="I39">
+        <v>-0.03460370289496314</v>
+      </c>
+      <c r="J39">
+        <v>-0.01381250109292374</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B40">
-        <v>0.001399625855170545</v>
+        <v>-0.009183090140255609</v>
       </c>
       <c r="C40">
-        <v>-0.01155082120966142</v>
+        <v>-0.05407738112363978</v>
       </c>
       <c r="D40">
-        <v>-0.07479541615591889</v>
+        <v>0.004652990413657684</v>
       </c>
       <c r="E40">
-        <v>0.1143862337354065</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.135829318683445</v>
+      </c>
+      <c r="F40">
+        <v>0.02566621307309638</v>
+      </c>
+      <c r="G40">
+        <v>0.06592176623276388</v>
+      </c>
+      <c r="H40">
+        <v>-0.002578266764910975</v>
+      </c>
+      <c r="I40">
+        <v>0.03327752109474289</v>
+      </c>
+      <c r="J40">
+        <v>-0.2340796622398789</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B41">
-        <v>-0.009484439855640724</v>
+        <v>-0.01871030509021971</v>
       </c>
       <c r="C41">
-        <v>-0.02310287720997034</v>
+        <v>-0.04903310630966881</v>
       </c>
       <c r="D41">
-        <v>0.001724374893711003</v>
+        <v>-0.005773901442177805</v>
       </c>
       <c r="E41">
-        <v>-0.005284131887057134</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.002046575559731855</v>
+      </c>
+      <c r="F41">
+        <v>-0.006289192575907961</v>
+      </c>
+      <c r="G41">
+        <v>0.01094970039865504</v>
+      </c>
+      <c r="H41">
+        <v>0.03331225925558407</v>
+      </c>
+      <c r="I41">
+        <v>0.04223429059097362</v>
+      </c>
+      <c r="J41">
+        <v>-0.06070901299477636</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +2038,89 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B43">
-        <v>0.002074820681030955</v>
+        <v>-0.01092278117622049</v>
       </c>
       <c r="C43">
-        <v>-0.01521260946236433</v>
+        <v>-0.04116574095033888</v>
       </c>
       <c r="D43">
-        <v>-0.02182182940644832</v>
+        <v>-0.01269554235386531</v>
       </c>
       <c r="E43">
-        <v>0.02782496621718135</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.03164839504177046</v>
+      </c>
+      <c r="F43">
+        <v>-0.0146851818342625</v>
+      </c>
+      <c r="G43">
+        <v>0.02219486086467803</v>
+      </c>
+      <c r="H43">
+        <v>0.04894653798829894</v>
+      </c>
+      <c r="I43">
+        <v>0.01498622547233317</v>
+      </c>
+      <c r="J43">
+        <v>-0.0520418315687581</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B44">
-        <v>-0.01098897626988626</v>
+        <v>-0.004530737540723662</v>
       </c>
       <c r="C44">
-        <v>-0.06741242806054784</v>
+        <v>-0.08143693609281008</v>
       </c>
       <c r="D44">
-        <v>-0.0977235684052858</v>
+        <v>-0.02265010015774767</v>
       </c>
       <c r="E44">
-        <v>0.09194215104364463</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.1136182014379174</v>
+      </c>
+      <c r="F44">
+        <v>-0.007915752219666203</v>
+      </c>
+      <c r="G44">
+        <v>0.005788658800640813</v>
+      </c>
+      <c r="H44">
+        <v>0.02532993486165349</v>
+      </c>
+      <c r="I44">
+        <v>-0.04083968963176494</v>
+      </c>
+      <c r="J44">
+        <v>0.0508643007403386</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,112 +2134,217 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B46">
-        <v>0.01122892294742651</v>
+        <v>0.003667990021204967</v>
       </c>
       <c r="C46">
-        <v>-0.05518373774427965</v>
+        <v>-0.06645191478036068</v>
       </c>
       <c r="D46">
-        <v>-0.05699676211985018</v>
+        <v>-0.01591297143723827</v>
       </c>
       <c r="E46">
-        <v>0.08522490827187744</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.07180354421564576</v>
+      </c>
+      <c r="F46">
+        <v>0.00526621778301574</v>
+      </c>
+      <c r="G46">
+        <v>0.05376585704737719</v>
+      </c>
+      <c r="H46">
+        <v>0.1185926303437541</v>
+      </c>
+      <c r="I46">
+        <v>-0.004246043970908119</v>
+      </c>
+      <c r="J46">
+        <v>-0.1074658944893703</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B47">
-        <v>-0.01358013149634714</v>
+        <v>-0.01988478802820624</v>
       </c>
       <c r="C47">
-        <v>-0.1165799341288547</v>
+        <v>-0.1024387707833843</v>
       </c>
       <c r="D47">
-        <v>0.01856784856016317</v>
+        <v>-0.02699418374709717</v>
       </c>
       <c r="E47">
-        <v>-0.02973869524085238</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.01633625212784326</v>
+      </c>
+      <c r="F47">
+        <v>-0.005359500769356643</v>
+      </c>
+      <c r="G47">
+        <v>-0.006620843559957552</v>
+      </c>
+      <c r="H47">
+        <v>0.08709380331294016</v>
+      </c>
+      <c r="I47">
+        <v>0.03759486154495168</v>
+      </c>
+      <c r="J47">
+        <v>-0.03814270391779687</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B48">
-        <v>-0.006909893725629436</v>
+        <v>-0.01471468067752766</v>
       </c>
       <c r="C48">
-        <v>-0.04096424867440215</v>
+        <v>-0.05302160811453756</v>
       </c>
       <c r="D48">
-        <v>-0.03097144305151343</v>
+        <v>-0.03183357581947265</v>
       </c>
       <c r="E48">
-        <v>0.07595076006138486</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.06327689234541589</v>
+      </c>
+      <c r="F48">
+        <v>-0.002037855340878433</v>
+      </c>
+      <c r="G48">
+        <v>0.01691710030236311</v>
+      </c>
+      <c r="H48">
+        <v>0.1238939894790622</v>
+      </c>
+      <c r="I48">
+        <v>-0.0002874655771182506</v>
+      </c>
+      <c r="J48">
+        <v>0.04367699193226469</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>-0.004758549734764228</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>-0.009426419230601899</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>-0.008617195141327413</v>
       </c>
       <c r="E49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>-0.0009992380530504654</v>
+      </c>
+      <c r="F49">
+        <v>0.00813370441963729</v>
+      </c>
+      <c r="G49">
+        <v>0.01992887182169562</v>
+      </c>
+      <c r="H49">
+        <v>-0.01257382310982191</v>
+      </c>
+      <c r="I49">
+        <v>-0.002580472511291491</v>
+      </c>
+      <c r="J49">
+        <v>0.009282602781205115</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B50">
-        <v>-0.007610083916007726</v>
+        <v>-0.01198846092102228</v>
       </c>
       <c r="C50">
-        <v>-0.0919774091292168</v>
+        <v>-0.09085598319476552</v>
       </c>
       <c r="D50">
-        <v>-0.001321205984787553</v>
+        <v>-0.01069389660446503</v>
       </c>
       <c r="E50">
-        <v>0.003524364978110309</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.0009037621415415254</v>
+      </c>
+      <c r="F50">
+        <v>-0.01578606175983697</v>
+      </c>
+      <c r="G50">
+        <v>-0.01917659401505192</v>
+      </c>
+      <c r="H50">
+        <v>0.06369916920735949</v>
+      </c>
+      <c r="I50">
+        <v>0.0582624946885489</v>
+      </c>
+      <c r="J50">
+        <v>-0.03969995349270294</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B51">
-        <v>-0.008019391873938332</v>
+        <v>0.004367319488009325</v>
       </c>
       <c r="C51">
-        <v>-0.04373880325196049</v>
+        <v>-0.03674090124826977</v>
       </c>
       <c r="D51">
-        <v>-0.08099199380077822</v>
+        <v>-0.003649585627439958</v>
       </c>
       <c r="E51">
-        <v>0.05449236239802138</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.06201210472713243</v>
+      </c>
+      <c r="F51">
+        <v>0.003424302452915961</v>
+      </c>
+      <c r="G51">
+        <v>-0.002177159619855942</v>
+      </c>
+      <c r="H51">
+        <v>0.1075716262425514</v>
+      </c>
+      <c r="I51">
+        <v>-0.02871511739223326</v>
+      </c>
+      <c r="J51">
+        <v>0.07875822157456255</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,78 +2358,153 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B53">
-        <v>-0.04921098127501055</v>
+        <v>-0.05195379588620302</v>
       </c>
       <c r="C53">
-        <v>-0.1726567010900955</v>
+        <v>-0.1544394422125281</v>
       </c>
       <c r="D53">
-        <v>0.06387157284245149</v>
+        <v>-0.05035469964873621</v>
       </c>
       <c r="E53">
-        <v>-0.04539837879518941</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.0978103342182588</v>
+      </c>
+      <c r="F53">
+        <v>-0.006162559385222781</v>
+      </c>
+      <c r="G53">
+        <v>-0.03266516144468089</v>
+      </c>
+      <c r="H53">
+        <v>0.00698234359999163</v>
+      </c>
+      <c r="I53">
+        <v>0.04715862278852027</v>
+      </c>
+      <c r="J53">
+        <v>-0.02918670199718648</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B54">
-        <v>1.254197153966788e-05</v>
+        <v>-0.01154669306915766</v>
       </c>
       <c r="C54">
-        <v>-0.04917807095753769</v>
+        <v>-0.06724661952198725</v>
       </c>
       <c r="D54">
-        <v>-0.06321992077031316</v>
+        <v>0.01480769284617923</v>
       </c>
       <c r="E54">
-        <v>0.01602647547153168</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.04542014502236609</v>
+      </c>
+      <c r="F54">
+        <v>-0.005266002712173519</v>
+      </c>
+      <c r="G54">
+        <v>0.01498683276650331</v>
+      </c>
+      <c r="H54">
+        <v>0.08494601671392442</v>
+      </c>
+      <c r="I54">
+        <v>-0.01848140739184495</v>
+      </c>
+      <c r="J54">
+        <v>-0.05201497148354361</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B55">
-        <v>-0.0326948187365619</v>
+        <v>-0.03048740922543367</v>
       </c>
       <c r="C55">
-        <v>-0.1387159986190329</v>
+        <v>-0.1137924701641953</v>
       </c>
       <c r="D55">
-        <v>0.06994377859627705</v>
+        <v>-0.05455214851751231</v>
       </c>
       <c r="E55">
-        <v>-0.0177281953141702</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.08089651581019736</v>
+      </c>
+      <c r="F55">
+        <v>0.007820083394154352</v>
+      </c>
+      <c r="G55">
+        <v>-0.02303002854908877</v>
+      </c>
+      <c r="H55">
+        <v>0.01551835510852794</v>
+      </c>
+      <c r="I55">
+        <v>0.008146921997774031</v>
+      </c>
+      <c r="J55">
+        <v>-0.02178980353177153</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B56">
-        <v>-0.05615180269721919</v>
+        <v>-0.04669364939292207</v>
       </c>
       <c r="C56">
-        <v>-0.2105676555967122</v>
+        <v>-0.1854733728155547</v>
       </c>
       <c r="D56">
-        <v>0.09249407240557907</v>
+        <v>-0.0770264866037578</v>
       </c>
       <c r="E56">
-        <v>-0.07013361459540837</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.1390250576609306</v>
+      </c>
+      <c r="F56">
+        <v>0.0002607273147365889</v>
+      </c>
+      <c r="G56">
+        <v>-0.07405414800052557</v>
+      </c>
+      <c r="H56">
+        <v>-0.003702711783511571</v>
+      </c>
+      <c r="I56">
+        <v>0.04132350493319323</v>
+      </c>
+      <c r="J56">
+        <v>0.04180641327534996</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,214 +2518,409 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B58">
-        <v>-0.01585810488032236</v>
+        <v>-0.009478011477622839</v>
       </c>
       <c r="C58">
-        <v>-0.1518469316429109</v>
+        <v>-0.1623169169427992</v>
       </c>
       <c r="D58">
-        <v>-0.2744533741562994</v>
+        <v>0.03772367973530974</v>
       </c>
       <c r="E58">
-        <v>0.1001173581590477</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.2525963832234313</v>
+      </c>
+      <c r="F58">
+        <v>-0.07428405048162308</v>
+      </c>
+      <c r="G58">
+        <v>-0.2340874228440731</v>
+      </c>
+      <c r="H58">
+        <v>0.001326877947723102</v>
+      </c>
+      <c r="I58">
+        <v>-0.07549262546818543</v>
+      </c>
+      <c r="J58">
+        <v>0.3281716939756644</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B59">
-        <v>-0.2534384389309434</v>
+        <v>-0.274503748809878</v>
       </c>
       <c r="C59">
-        <v>0.02696032077908319</v>
+        <v>0.03490890399551771</v>
       </c>
       <c r="D59">
-        <v>-0.07053942994572164</v>
+        <v>0.01489075254588488</v>
       </c>
       <c r="E59">
-        <v>0.005817679863593072</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.0497753894968108</v>
+      </c>
+      <c r="F59">
+        <v>0.01629500972007015</v>
+      </c>
+      <c r="G59">
+        <v>-0.01838672395319117</v>
+      </c>
+      <c r="H59">
+        <v>-0.01981333401775273</v>
+      </c>
+      <c r="I59">
+        <v>0.09695958952951261</v>
+      </c>
+      <c r="J59">
+        <v>0.02006903392341983</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B60">
-        <v>-0.122147504422078</v>
+        <v>-0.1468491052657652</v>
       </c>
       <c r="C60">
-        <v>-0.1511669772676888</v>
+        <v>-0.1620052386877585</v>
       </c>
       <c r="D60">
-        <v>0.007286017929819835</v>
+        <v>-0.02555433566717426</v>
       </c>
       <c r="E60">
-        <v>0.04360488831736537</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.007804699958510941</v>
+      </c>
+      <c r="F60">
+        <v>0.1107895423765514</v>
+      </c>
+      <c r="G60">
+        <v>0.2618228958924759</v>
+      </c>
+      <c r="H60">
+        <v>-0.2858976936438221</v>
+      </c>
+      <c r="I60">
+        <v>-0.06743890077440172</v>
+      </c>
+      <c r="J60">
+        <v>0.05784845839813359</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B61">
-        <v>-0.005000386504696148</v>
+        <v>-0.01397116223530129</v>
       </c>
       <c r="C61">
-        <v>-0.08463893665464686</v>
+        <v>-0.1038764462733007</v>
       </c>
       <c r="D61">
-        <v>-0.03827643387126305</v>
+        <v>-0.02298024881556624</v>
       </c>
       <c r="E61">
-        <v>0.05134789031797431</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.04547554029916929</v>
+      </c>
+      <c r="F61">
+        <v>0.00573352853274399</v>
+      </c>
+      <c r="G61">
+        <v>0.05530089755681097</v>
+      </c>
+      <c r="H61">
+        <v>0.0535260773272245</v>
+      </c>
+      <c r="I61">
+        <v>-0.004765907096057964</v>
+      </c>
+      <c r="J61">
+        <v>-0.0511341811211465</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>-0.0008269795029174514</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>-0.003603140448066654</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>-0.003817056293731795</v>
       </c>
       <c r="E62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+        <v>-0.007854763457856987</v>
+      </c>
+      <c r="F62">
+        <v>0.002999504067774784</v>
+      </c>
+      <c r="G62">
+        <v>0.004654491874647465</v>
+      </c>
+      <c r="H62">
+        <v>0.01030366616294495</v>
+      </c>
+      <c r="I62">
+        <v>-0.001929573260450873</v>
+      </c>
+      <c r="J62">
+        <v>-0.005449831812750605</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B63">
-        <v>0.007027130276443007</v>
+        <v>-0.01566254870548453</v>
       </c>
       <c r="C63">
-        <v>-0.05560890581886297</v>
+        <v>-0.0726563630559986</v>
       </c>
       <c r="D63">
-        <v>-0.03628612447218061</v>
+        <v>-0.02672470064421631</v>
       </c>
       <c r="E63">
-        <v>0.03612799254354048</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.04681788904414571</v>
+      </c>
+      <c r="F63">
+        <v>0.006161844554580181</v>
+      </c>
+      <c r="G63">
+        <v>0.03446387040645161</v>
+      </c>
+      <c r="H63">
+        <v>0.07411903263531142</v>
+      </c>
+      <c r="I63">
+        <v>0.02131196705814552</v>
+      </c>
+      <c r="J63">
+        <v>-0.02941528304798858</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B64">
-        <v>-0.009837062586904206</v>
+        <v>-0.01317600750629458</v>
       </c>
       <c r="C64">
-        <v>-0.1202506440356364</v>
+        <v>-0.1062683833955764</v>
       </c>
       <c r="D64">
-        <v>0.01159817896871014</v>
+        <v>-0.01801982183722954</v>
       </c>
       <c r="E64">
-        <v>0.04319435272414572</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.01540580327094747</v>
+      </c>
+      <c r="F64">
+        <v>-0.02660156783282711</v>
+      </c>
+      <c r="G64">
+        <v>0.02532382699072708</v>
+      </c>
+      <c r="H64">
+        <v>0.01152812423615999</v>
+      </c>
+      <c r="I64">
+        <v>-0.002396527267274944</v>
+      </c>
+      <c r="J64">
+        <v>-0.04131273953205646</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B65">
-        <v>-0.01882712033318447</v>
+        <v>-0.02577391835587304</v>
       </c>
       <c r="C65">
-        <v>-0.06733915278876464</v>
+        <v>-0.08739534364892186</v>
       </c>
       <c r="D65">
-        <v>-0.06250714026214681</v>
+        <v>0.009634613579227692</v>
       </c>
       <c r="E65">
-        <v>0.06195401928916151</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.09251602891457184</v>
+      </c>
+      <c r="F65">
+        <v>-0.007985124870875982</v>
+      </c>
+      <c r="G65">
+        <v>0.07114279646668832</v>
+      </c>
+      <c r="H65">
+        <v>-0.004977216261053029</v>
+      </c>
+      <c r="I65">
+        <v>-0.0535033274829858</v>
+      </c>
+      <c r="J65">
+        <v>0.00021806845300063</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B66">
-        <v>-0.0005543826868664224</v>
+        <v>-0.006581519296437474</v>
       </c>
       <c r="C66">
-        <v>-0.1376181901189833</v>
+        <v>-0.1559079783939539</v>
       </c>
       <c r="D66">
-        <v>-0.1032220552714296</v>
+        <v>-0.004664999566046565</v>
       </c>
       <c r="E66">
-        <v>0.07605742019902542</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.08071977955304729</v>
+      </c>
+      <c r="F66">
+        <v>0.004755596839558258</v>
+      </c>
+      <c r="G66">
+        <v>0.02203088735920802</v>
+      </c>
+      <c r="H66">
+        <v>0.04722030506907532</v>
+      </c>
+      <c r="I66">
+        <v>-0.02822377417184746</v>
+      </c>
+      <c r="J66">
+        <v>-0.01017979014311091</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B67">
-        <v>-0.01629935988827527</v>
+        <v>-0.01734633981708074</v>
       </c>
       <c r="C67">
-        <v>-0.0419266889274918</v>
+        <v>-0.05743333765692104</v>
       </c>
       <c r="D67">
-        <v>0.007321647575910628</v>
+        <v>-0.02645451594574153</v>
       </c>
       <c r="E67">
-        <v>0.03511580433139946</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.02898407433620503</v>
+      </c>
+      <c r="F67">
+        <v>-0.03603438773801093</v>
+      </c>
+      <c r="G67">
+        <v>0.03945279223730012</v>
+      </c>
+      <c r="H67">
+        <v>0.0398667872942481</v>
+      </c>
+      <c r="I67">
+        <v>0.02558614381546051</v>
+      </c>
+      <c r="J67">
+        <v>-0.07832498128443575</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B68">
-        <v>-0.2584418539703491</v>
+        <v>-0.2868962240531873</v>
       </c>
       <c r="C68">
-        <v>0.04397753224576358</v>
+        <v>0.0437344713227826</v>
       </c>
       <c r="D68">
-        <v>-0.05823641043287051</v>
+        <v>0.0374353219784715</v>
       </c>
       <c r="E68">
-        <v>-0.001984172150326712</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.04933030950558095</v>
+      </c>
+      <c r="F68">
+        <v>-0.01427072415901719</v>
+      </c>
+      <c r="G68">
+        <v>-0.05689655480606792</v>
+      </c>
+      <c r="H68">
+        <v>-0.02035732573903609</v>
+      </c>
+      <c r="I68">
+        <v>0.08129611751779069</v>
+      </c>
+      <c r="J68">
+        <v>0.006720911443726899</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B69">
-        <v>-0.01665427475836882</v>
+        <v>-0.009919889675935534</v>
       </c>
       <c r="C69">
-        <v>-0.1096203827948481</v>
+        <v>-0.08252855917296581</v>
       </c>
       <c r="D69">
-        <v>0.032644512013781</v>
+        <v>-0.02337601322680104</v>
       </c>
       <c r="E69">
-        <v>0.02175363325954444</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.01540111628930847</v>
+      </c>
+      <c r="F69">
+        <v>-0.009194803695945684</v>
+      </c>
+      <c r="G69">
+        <v>0.00151354809191729</v>
+      </c>
+      <c r="H69">
+        <v>0.06077455053235542</v>
+      </c>
+      <c r="I69">
+        <v>0.03184303910779233</v>
+      </c>
+      <c r="J69">
+        <v>-0.02011557007556521</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,435 +2934,825 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B71">
-        <v>-0.2698062664589562</v>
+        <v>-0.2730312543035478</v>
       </c>
       <c r="C71">
-        <v>0.06363044104568431</v>
+        <v>0.06591974800246643</v>
       </c>
       <c r="D71">
-        <v>-0.05822633190598998</v>
+        <v>0.02220212784813771</v>
       </c>
       <c r="E71">
-        <v>-0.02631715972123902</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.04570977607817746</v>
+      </c>
+      <c r="F71">
+        <v>-0.03632177723384844</v>
+      </c>
+      <c r="G71">
+        <v>-0.007614640945611047</v>
+      </c>
+      <c r="H71">
+        <v>0.06240389360185011</v>
+      </c>
+      <c r="I71">
+        <v>0.1073615940258508</v>
+      </c>
+      <c r="J71">
+        <v>0.07973358436898702</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B72">
-        <v>-0.06134615451592266</v>
+        <v>-0.05902902620677471</v>
       </c>
       <c r="C72">
-        <v>-0.1747877515325212</v>
+        <v>-0.1584616352819448</v>
       </c>
       <c r="D72">
-        <v>-0.01921821127844981</v>
+        <v>-0.01416537491821266</v>
       </c>
       <c r="E72">
-        <v>0.09276970055720787</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.005098632869323741</v>
+      </c>
+      <c r="F72">
+        <v>0.01655353185386162</v>
+      </c>
+      <c r="G72">
+        <v>0.03672840722235113</v>
+      </c>
+      <c r="H72">
+        <v>-0.04339468383606941</v>
+      </c>
+      <c r="I72">
+        <v>-0.0841125152344725</v>
+      </c>
+      <c r="J72">
+        <v>-0.07106229797652278</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B73">
-        <v>-0.09641870371675579</v>
+        <v>-0.146617997804444</v>
       </c>
       <c r="C73">
-        <v>-0.1581376615726874</v>
+        <v>-0.2027053672462761</v>
       </c>
       <c r="D73">
-        <v>0.03237109812479311</v>
+        <v>-0.04165186967544138</v>
       </c>
       <c r="E73">
-        <v>0.0620208920834945</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.008365265426569186</v>
+      </c>
+      <c r="F73">
+        <v>0.1278886949430937</v>
+      </c>
+      <c r="G73">
+        <v>0.4390805284230384</v>
+      </c>
+      <c r="H73">
+        <v>-0.2840364230007873</v>
+      </c>
+      <c r="I73">
+        <v>0.01253094506612738</v>
+      </c>
+      <c r="J73">
+        <v>0.1149824624678359</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B74">
-        <v>-0.03570858692196417</v>
+        <v>-0.03817725449699803</v>
       </c>
       <c r="C74">
-        <v>-0.1295570402934369</v>
+        <v>-0.1197820484276615</v>
       </c>
       <c r="D74">
-        <v>0.09063564379050075</v>
+        <v>-0.04845149504402347</v>
       </c>
       <c r="E74">
-        <v>-0.02917919165770085</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.08253287767268037</v>
+      </c>
+      <c r="F74">
+        <v>-0.006010017693047628</v>
+      </c>
+      <c r="G74">
+        <v>-0.0186824052136208</v>
+      </c>
+      <c r="H74">
+        <v>0.01550582753720092</v>
+      </c>
+      <c r="I74">
+        <v>0.01123996020586896</v>
+      </c>
+      <c r="J74">
+        <v>-0.01249006430279461</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B75">
-        <v>-0.10853121130812</v>
+        <v>-0.07336227500251361</v>
       </c>
       <c r="C75">
-        <v>-0.2377567533272799</v>
+        <v>-0.2050519441910079</v>
       </c>
       <c r="D75">
-        <v>0.198035775408685</v>
+        <v>-0.1011564204852456</v>
       </c>
       <c r="E75">
-        <v>-0.09380707336845515</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.2305852282389883</v>
+      </c>
+      <c r="F75">
+        <v>-0.08955791322175256</v>
+      </c>
+      <c r="G75">
+        <v>-0.08540435155139225</v>
+      </c>
+      <c r="H75">
+        <v>-0.01328955435991841</v>
+      </c>
+      <c r="I75">
+        <v>0.07902308073424102</v>
+      </c>
+      <c r="J75">
+        <v>-0.04024910348672683</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B76">
-        <v>-0.0495798192433945</v>
+        <v>-0.04159021933747462</v>
       </c>
       <c r="C76">
-        <v>-0.1593371465256727</v>
+        <v>-0.1493530998036946</v>
       </c>
       <c r="D76">
-        <v>0.09287408877779978</v>
+        <v>-0.07825109924018391</v>
       </c>
       <c r="E76">
-        <v>-0.02226629276560065</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.1035275430826456</v>
+      </c>
+      <c r="F76">
+        <v>-0.0005147716562914471</v>
+      </c>
+      <c r="G76">
+        <v>-0.001779486288511462</v>
+      </c>
+      <c r="H76">
+        <v>0.01647741279539033</v>
+      </c>
+      <c r="I76">
+        <v>0.01862306153274119</v>
+      </c>
+      <c r="J76">
+        <v>-0.02534378110264213</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B77">
-        <v>-0.02770956386629266</v>
+        <v>-0.02236138147327021</v>
       </c>
       <c r="C77">
-        <v>-0.1350192130963392</v>
+        <v>-0.2284879903957026</v>
       </c>
       <c r="D77">
-        <v>-0.4854719149039246</v>
+        <v>0.9387779548551906</v>
       </c>
       <c r="E77">
-        <v>-0.7943851758708198</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.2163293989552723</v>
+      </c>
+      <c r="F77">
+        <v>-0.02600643236856372</v>
+      </c>
+      <c r="G77">
+        <v>0.02201223779075042</v>
+      </c>
+      <c r="H77">
+        <v>0.04581545714310555</v>
+      </c>
+      <c r="I77">
+        <v>-0.01848719653871222</v>
+      </c>
+      <c r="J77">
+        <v>-0.004236460559592776</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B78">
-        <v>-0.02524872584478339</v>
+        <v>-0.02492970921837969</v>
       </c>
       <c r="C78">
-        <v>-0.1400877211253858</v>
+        <v>-0.1225210667679909</v>
       </c>
       <c r="D78">
-        <v>-0.1003494910670573</v>
+        <v>-0.05102875213591172</v>
       </c>
       <c r="E78">
-        <v>0.08447841006797707</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.05939309608422393</v>
+      </c>
+      <c r="F78">
+        <v>0.01076354623236763</v>
+      </c>
+      <c r="G78">
+        <v>-0.0807984964233724</v>
+      </c>
+      <c r="H78">
+        <v>0.1441275185612592</v>
+      </c>
+      <c r="I78">
+        <v>-0.1748122937601759</v>
+      </c>
+      <c r="J78">
+        <v>0.5491624464025789</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B79">
-        <v>-0.0763344298508622</v>
+        <v>-0.06115804443862071</v>
       </c>
       <c r="C79">
-        <v>-0.2779248523254639</v>
+        <v>-0.2053037553523064</v>
       </c>
       <c r="D79">
-        <v>0.2134773287607476</v>
+        <v>-0.09021397059271831</v>
       </c>
       <c r="E79">
-        <v>-0.1083535286360209</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>0.2386801285942704</v>
+      </c>
+      <c r="F79">
+        <v>-0.01879132426657969</v>
+      </c>
+      <c r="G79">
+        <v>-0.1636628191943963</v>
+      </c>
+      <c r="H79">
+        <v>0.04390853112259541</v>
+      </c>
+      <c r="I79">
+        <v>0.08023980113144671</v>
+      </c>
+      <c r="J79">
+        <v>-0.003010973773840471</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B80">
-        <v>0.01318938829821965</v>
+        <v>-0.006772518999708694</v>
       </c>
       <c r="C80">
-        <v>-0.06790252209938816</v>
+        <v>-0.0627631120056774</v>
       </c>
       <c r="D80">
-        <v>0.003523257787815417</v>
+        <v>-0.03566980549528815</v>
       </c>
       <c r="E80">
-        <v>0.03748785025525204</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.04627160054087821</v>
+      </c>
+      <c r="F80">
+        <v>0.07267082102318587</v>
+      </c>
+      <c r="G80">
+        <v>0.03848175066104087</v>
+      </c>
+      <c r="H80">
+        <v>-0.04164465362065801</v>
+      </c>
+      <c r="I80">
+        <v>0.06311990684396095</v>
+      </c>
+      <c r="J80">
+        <v>-0.08314305996705851</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B81">
-        <v>-0.0433161095765827</v>
+        <v>-0.02465905824608765</v>
       </c>
       <c r="C81">
-        <v>-0.140653927543028</v>
+        <v>-0.124781190003899</v>
       </c>
       <c r="D81">
-        <v>0.1187180515385038</v>
+        <v>-0.05218203468191709</v>
       </c>
       <c r="E81">
-        <v>-0.06224813485867794</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.1062624241126889</v>
+      </c>
+      <c r="F81">
+        <v>-0.01981213919785884</v>
+      </c>
+      <c r="G81">
+        <v>-0.06273269966762221</v>
+      </c>
+      <c r="H81">
+        <v>0.06539098669141757</v>
+      </c>
+      <c r="I81">
+        <v>0.0903411143544583</v>
+      </c>
+      <c r="J81">
+        <v>-0.0227568889661185</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B82">
-        <v>-0.07071337553029933</v>
+        <v>-0.05325849015823681</v>
       </c>
       <c r="C82">
-        <v>-0.1756170984230587</v>
+        <v>-0.1426708957325289</v>
       </c>
       <c r="D82">
-        <v>0.1387159218240445</v>
+        <v>-0.08097271101564497</v>
       </c>
       <c r="E82">
-        <v>-0.04300079794574026</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.1325781163150038</v>
+      </c>
+      <c r="F82">
+        <v>-0.004575054127187354</v>
+      </c>
+      <c r="G82">
+        <v>-0.03670887241372608</v>
+      </c>
+      <c r="H82">
+        <v>0.03564617033417141</v>
+      </c>
+      <c r="I82">
+        <v>0.05685514880172476</v>
+      </c>
+      <c r="J82">
+        <v>-0.02598316625508883</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B83">
-        <v>-0.01168217739987268</v>
+        <v>-0.00484359455830306</v>
       </c>
       <c r="C83">
-        <v>-0.0586759568186949</v>
+        <v>-0.01229549783147362</v>
       </c>
       <c r="D83">
-        <v>-0.04812386336985237</v>
+        <v>0.04052785339279545</v>
       </c>
       <c r="E83">
-        <v>-0.004780007270606687</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.01999180149157103</v>
+      </c>
+      <c r="F83">
+        <v>0.9144712810287712</v>
+      </c>
+      <c r="G83">
+        <v>-0.281393174902185</v>
+      </c>
+      <c r="H83">
+        <v>-0.03062972418489374</v>
+      </c>
+      <c r="I83">
+        <v>0.123688020243204</v>
+      </c>
+      <c r="J83">
+        <v>0.008655469719415557</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B84">
-        <v>0.001160376560693695</v>
+        <v>0.001919382883999428</v>
       </c>
       <c r="C84">
-        <v>-0.02750987259988193</v>
+        <v>-0.03844529061361878</v>
       </c>
       <c r="D84">
-        <v>-0.03903210727167622</v>
+        <v>-0.04008832493373406</v>
       </c>
       <c r="E84">
-        <v>0.06331079216124154</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>-0.06901787564425528</v>
+      </c>
+      <c r="F84">
+        <v>-0.05111635701123381</v>
+      </c>
+      <c r="G84">
+        <v>-0.056309169802161</v>
+      </c>
+      <c r="H84">
+        <v>0.06514377176598625</v>
+      </c>
+      <c r="I84">
+        <v>-0.05022914437026323</v>
+      </c>
+      <c r="J84">
+        <v>-0.1111768363506987</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B85">
-        <v>-0.0490212401595477</v>
+        <v>-0.03411510994507239</v>
       </c>
       <c r="C85">
-        <v>-0.1900023774469575</v>
+        <v>-0.1493650050957677</v>
       </c>
       <c r="D85">
-        <v>0.1472214162354664</v>
+        <v>-0.09373944505161122</v>
       </c>
       <c r="E85">
-        <v>-0.0568471516304826</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.1788007425213769</v>
+      </c>
+      <c r="F85">
+        <v>-0.01333033682180292</v>
+      </c>
+      <c r="G85">
+        <v>-0.07611331813508633</v>
+      </c>
+      <c r="H85">
+        <v>0.01956184785118024</v>
+      </c>
+      <c r="I85">
+        <v>0.07537779840000554</v>
+      </c>
+      <c r="J85">
+        <v>-0.04439972171676324</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B86">
-        <v>-0.02967970187450718</v>
+        <v>-0.01681460695103089</v>
       </c>
       <c r="C86">
-        <v>-0.03879130928059082</v>
+        <v>-0.06831608376344679</v>
       </c>
       <c r="D86">
-        <v>-0.09434544815829145</v>
+        <v>0.01180011542688267</v>
       </c>
       <c r="E86">
-        <v>-0.0178945390343931</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.06346154684760491</v>
+      </c>
+      <c r="F86">
+        <v>-0.05456551328494452</v>
+      </c>
+      <c r="G86">
+        <v>-0.0722738200807836</v>
+      </c>
+      <c r="H86">
+        <v>0.08020678049627455</v>
+      </c>
+      <c r="I86">
+        <v>0.04636843009100163</v>
+      </c>
+      <c r="J86">
+        <v>0.1639622308791443</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B87">
-        <v>-0.02123575738255017</v>
+        <v>-0.01485694388954177</v>
       </c>
       <c r="C87">
-        <v>-0.1059115163086795</v>
+        <v>-0.1177868159007958</v>
       </c>
       <c r="D87">
-        <v>-0.1387965798553558</v>
+        <v>0.02868568574047881</v>
       </c>
       <c r="E87">
-        <v>0.07775651730107974</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.1113883239443793</v>
+      </c>
+      <c r="F87">
+        <v>-0.01939385877218956</v>
+      </c>
+      <c r="G87">
+        <v>-0.03897592620398066</v>
+      </c>
+      <c r="H87">
+        <v>0.02234668399934202</v>
+      </c>
+      <c r="I87">
+        <v>-0.1485675792655404</v>
+      </c>
+      <c r="J87">
+        <v>0.07003034483220057</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B88">
-        <v>-0.02577841151198767</v>
+        <v>-0.03590165175663494</v>
       </c>
       <c r="C88">
-        <v>-0.08224265658563709</v>
+        <v>-0.08605955447715707</v>
       </c>
       <c r="D88">
-        <v>0.05180871728685355</v>
+        <v>-0.02879677154038574</v>
       </c>
       <c r="E88">
-        <v>0.004549998408424251</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.01678509037488373</v>
+      </c>
+      <c r="F88">
+        <v>-0.008732746229949668</v>
+      </c>
+      <c r="G88">
+        <v>0.02391029458237852</v>
+      </c>
+      <c r="H88">
+        <v>0.008786751242573903</v>
+      </c>
+      <c r="I88">
+        <v>0.02713095949601416</v>
+      </c>
+      <c r="J88">
+        <v>-0.1041607723400539</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B89">
-        <v>-0.4382843589676458</v>
+        <v>-0.4059369377926966</v>
       </c>
       <c r="C89">
-        <v>0.1135166259610283</v>
+        <v>0.1131912475556596</v>
       </c>
       <c r="D89">
-        <v>0.01865656475693514</v>
+        <v>0.01093506181487255</v>
       </c>
       <c r="E89">
-        <v>0.2411351696875725</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>-0.02795745900832492</v>
+      </c>
+      <c r="F89">
+        <v>0.09331302548675255</v>
+      </c>
+      <c r="G89">
+        <v>-0.1019930553863442</v>
+      </c>
+      <c r="H89">
+        <v>0.05353689783517066</v>
+      </c>
+      <c r="I89">
+        <v>-0.7533561840542805</v>
+      </c>
+      <c r="J89">
+        <v>-0.2238141941246013</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B90">
-        <v>-0.3270150092274546</v>
+        <v>-0.3247594569424997</v>
       </c>
       <c r="C90">
-        <v>0.07317053593160736</v>
+        <v>0.06859800333371378</v>
       </c>
       <c r="D90">
-        <v>-0.08299066019583055</v>
+        <v>0.02329886414475347</v>
       </c>
       <c r="E90">
-        <v>-0.004750777264115606</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.04862981210497305</v>
+      </c>
+      <c r="F90">
+        <v>-0.01995610986990143</v>
+      </c>
+      <c r="G90">
+        <v>-0.02043430089898521</v>
+      </c>
+      <c r="H90">
+        <v>-0.01224963646784374</v>
+      </c>
+      <c r="I90">
+        <v>0.1586690161215973</v>
+      </c>
+      <c r="J90">
+        <v>0.02602102011297386</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B91">
-        <v>-0.05468314998885765</v>
+        <v>-0.05342550792082777</v>
       </c>
       <c r="C91">
-        <v>-0.161713751962445</v>
+        <v>-0.1304473274589062</v>
       </c>
       <c r="D91">
-        <v>0.1165638246671408</v>
+        <v>-0.04922393799219991</v>
       </c>
       <c r="E91">
-        <v>-0.06731946456635503</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.1293126830050383</v>
+      </c>
+      <c r="F91">
+        <v>0.02740864149111836</v>
+      </c>
+      <c r="G91">
+        <v>-0.05634558409067766</v>
+      </c>
+      <c r="H91">
+        <v>0.01177088400785431</v>
+      </c>
+      <c r="I91">
+        <v>0.03052650583003695</v>
+      </c>
+      <c r="J91">
+        <v>-0.03982637138959846</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B92">
-        <v>-0.3446558210555128</v>
+        <v>-0.3494266222746382</v>
       </c>
       <c r="C92">
-        <v>0.125263249882362</v>
+        <v>0.1208495645183728</v>
       </c>
       <c r="D92">
-        <v>-0.07230404176173837</v>
+        <v>0.05113794149514104</v>
       </c>
       <c r="E92">
-        <v>-0.03085384051130743</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.06277286516189576</v>
+      </c>
+      <c r="F92">
+        <v>-0.1037118360588698</v>
+      </c>
+      <c r="G92">
+        <v>-0.01967555397488259</v>
+      </c>
+      <c r="H92">
+        <v>0.03976846406663898</v>
+      </c>
+      <c r="I92">
+        <v>0.1528225198115654</v>
+      </c>
+      <c r="J92">
+        <v>-0.004997090961922373</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B93">
-        <v>-0.3317293595772454</v>
+        <v>-0.3236622152429214</v>
       </c>
       <c r="C93">
-        <v>0.09410149878940298</v>
+        <v>0.1061535094858193</v>
       </c>
       <c r="D93">
-        <v>0.01738301358771464</v>
+        <v>-0.006035701311518925</v>
       </c>
       <c r="E93">
-        <v>-0.01935166101421204</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.010386751311081</v>
+      </c>
+      <c r="F93">
+        <v>-0.02110909843728629</v>
+      </c>
+      <c r="G93">
+        <v>-0.03276639881802672</v>
+      </c>
+      <c r="H93">
+        <v>0.04118825805994442</v>
+      </c>
+      <c r="I93">
+        <v>0.1153142695716029</v>
+      </c>
+      <c r="J93">
+        <v>0.04118025839532431</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B94">
-        <v>-0.1163981485815765</v>
+        <v>-0.09201104515668772</v>
       </c>
       <c r="C94">
-        <v>-0.2665904194897722</v>
+        <v>-0.2165710499924405</v>
       </c>
       <c r="D94">
-        <v>0.2838941317762231</v>
+        <v>-0.1414029000308531</v>
       </c>
       <c r="E94">
-        <v>-0.100026025612679</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.3842048129018679</v>
+      </c>
+      <c r="F94">
+        <v>-0.04942034232421785</v>
+      </c>
+      <c r="G94">
+        <v>-0.2693259069625843</v>
+      </c>
+      <c r="H94">
+        <v>-0.1078919313632264</v>
+      </c>
+      <c r="I94">
+        <v>-0.2065715383382421</v>
+      </c>
+      <c r="J94">
+        <v>-0.03879574387970544</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B95">
-        <v>-0.02949775561124587</v>
+        <v>-0.03339154754276216</v>
       </c>
       <c r="C95">
-        <v>-0.06358327174298839</v>
+        <v>-0.1123806992244704</v>
       </c>
       <c r="D95">
-        <v>-0.01061409618772061</v>
+        <v>-0.002217976059450878</v>
       </c>
       <c r="E95">
-        <v>0.02878834960251783</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.02567013077323489</v>
+      </c>
+      <c r="F95">
+        <v>-0.01887148103409205</v>
+      </c>
+      <c r="G95">
+        <v>0.1242413049303212</v>
+      </c>
+      <c r="H95">
+        <v>0.04628893676609157</v>
+      </c>
+      <c r="I95">
+        <v>-0.001416108272695584</v>
+      </c>
+      <c r="J95">
+        <v>-0.1083862245577965</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,61 +3766,121 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>-0.004595838570950654</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>-0.007137053004636977</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>0.02196836993164896</v>
       </c>
       <c r="E97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>-0.01868065181174777</v>
+      </c>
+      <c r="F97">
+        <v>-0.01511530796523415</v>
+      </c>
+      <c r="G97">
+        <v>0.0228051037573699</v>
+      </c>
+      <c r="H97">
+        <v>-0.008085304764474242</v>
+      </c>
+      <c r="I97">
+        <v>0.009907108812785653</v>
+      </c>
+      <c r="J97">
+        <v>-0.01054949514985202</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B98">
-        <v>-0.07821579411226567</v>
+        <v>-0.1274998615307402</v>
       </c>
       <c r="C98">
-        <v>-0.1441772303462464</v>
+        <v>-0.1690017899137915</v>
       </c>
       <c r="D98">
-        <v>-0.02214766456528181</v>
+        <v>-0.04414887729643405</v>
       </c>
       <c r="E98">
-        <v>0.05267684913802193</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.03194075065782057</v>
+      </c>
+      <c r="F98">
+        <v>0.08392198767356601</v>
+      </c>
+      <c r="G98">
+        <v>0.3697348958489155</v>
+      </c>
+      <c r="H98">
+        <v>-0.3266338426099585</v>
+      </c>
+      <c r="I98">
+        <v>-0.03494209450653232</v>
+      </c>
+      <c r="J98">
+        <v>0.1595411499158694</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>-0.001372725979036855</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>-0.00779507158852861</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>0.009658482588742306</v>
       </c>
       <c r="E99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
+        <v>-0.004865707906089604</v>
+      </c>
+      <c r="F99">
+        <v>-0.000861745132685364</v>
+      </c>
+      <c r="G99">
+        <v>0.003467174392538686</v>
+      </c>
+      <c r="H99">
+        <v>0.01973084895970154</v>
+      </c>
+      <c r="I99">
+        <v>-0.01951814834910952</v>
+      </c>
+      <c r="J99">
+        <v>-0.007915006959430679</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +3894,89 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B101">
-        <v>0.001387244842267019</v>
+        <v>-0.004556992179869978</v>
       </c>
       <c r="C101">
-        <v>-0.04936385451473915</v>
+        <v>-0.07629028247371493</v>
       </c>
       <c r="D101">
-        <v>-0.0696320739993096</v>
+        <v>-0.009556849496110565</v>
       </c>
       <c r="E101">
-        <v>0.08444930453416533</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>-0.1136075281937362</v>
+      </c>
+      <c r="F101">
+        <v>0.04819177132548424</v>
+      </c>
+      <c r="G101">
+        <v>0.0925580170064912</v>
+      </c>
+      <c r="H101">
+        <v>0.1964458547200242</v>
+      </c>
+      <c r="I101">
+        <v>-0.04987611534886412</v>
+      </c>
+      <c r="J101">
+        <v>-0.1711090497661828</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B102">
-        <v>-0.03081219856963932</v>
+        <v>-0.01220925054500181</v>
       </c>
       <c r="C102">
-        <v>-0.09715506894562302</v>
+        <v>-0.0465967150413559</v>
       </c>
       <c r="D102">
-        <v>0.07157537732699563</v>
+        <v>-0.02652669740992999</v>
       </c>
       <c r="E102">
-        <v>-0.02596911315842147</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.07005164593915907</v>
+      </c>
+      <c r="F102">
+        <v>0.009822349957528837</v>
+      </c>
+      <c r="G102">
+        <v>-0.03755503688893361</v>
+      </c>
+      <c r="H102">
+        <v>0.00454431892600515</v>
+      </c>
+      <c r="I102">
+        <v>-0.004471321805596966</v>
+      </c>
+      <c r="J102">
+        <v>-0.003897533509272775</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +3990,25 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +4020,21 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
         <v>0</v>
       </c>
     </row>
